--- a/biology/Histoire de la zoologie et de la botanique/Hermann_Lebert/Hermann_Lebert.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Hermann_Lebert/Hermann_Lebert.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hermann Lebert est un médecin et un naturaliste prussien, né à Breslau le 9 juin 1813 et décédé le 1er août 1878 à Bex (Suisse).
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom de naissance était Hermann Lewy. Il étudie la médecine et les sciences naturelles d’abord à Berlin puis à Zurich où il reçoit l’enseignement de Johann Lukas Schönlein. Après l’obtention de son doctorat en médecine à Zurich (1834), il voyage à travers la Suisse, et se consacre à des études de botanique. Il passe ensuite une année et demie à Paris à compléter sa formation médicale auprès de Guillaume Dupuytren et de Pierre-Charles Alexandre Louis. En 1838, il s’installe à Bex, dans le canton de Vaud, et par la suite partage son activité entre cette petite ville et Paris. De 1842 à 1845, il se consacre surtout à l’anatomie comparée, une discipline pour laquelle son intérêt était apparu durant ses voyages d’étudiant sur les côtes de Normandie et dans les îles Anglo-Normandes en compagnie de Charles Philippe Robin.
 Sur mission du gouvernement, il collecte des spécimens pour le Musée Orfila. Après un séjour à Berlin durant l’hiver 1845-1846 Lebert s’installe à Paris, où il exerce la médecine tout en continuant ses travaux scientifiques. En 1853, il accepte la proposition d’un poste de professeur de médecine clinique à Zurich et six ans plus tard devient titulaire du même poste à Breslau. Il prend sa retraite en 1874 à Bex, où il passe ses dernières années.
@@ -544,7 +558,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Dans le domaine de l'arachnologie ses principales publications furent :
 Lebert, 1877 : Die Spinnen der Schweiz, ihr Bau, ihr Leben, ihre systematische Ubersicht. Neue Denkscher Algemein Schweiz Gesellschaft Ges Naturweiss, vol. 27, p. 1-321.
